--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1212082.28002407</v>
+        <v>-1214641.550591626</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>298.5520470140106</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962358</v>
+        <v>43.29451177962369</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>12.83681383535679</v>
       </c>
       <c r="T2" t="n">
         <v>204.1129955007334</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736371</v>
+        <v>9.512185486736414</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>92.75950069007646</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.90266382006395</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104685</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.8307234716369</v>
+        <v>89.83072347163696</v>
       </c>
       <c r="S4" t="n">
-        <v>190.11729872947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>50.84399365306155</v>
       </c>
       <c r="W5" t="n">
-        <v>286.8521209076256</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>78.49711119139536</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>8.347871548094357</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>204.0005215907904</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>229.7969491240989</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>60.76903089633826</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>142.687967295129</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444155</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>95.05806357631771</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>66.25628701154722</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>84.90358457993544</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>183.6118834172069</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>10.63412424768304</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>113.6427030833205</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>143.7533552439556</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588582</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>243.6815919258102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428175</v>
+        <v>83.06560892428126</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545308</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261718</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1119.755593162617</v>
+        <v>1591.57101945289</v>
       </c>
       <c r="C2" t="n">
-        <v>1119.755593162617</v>
+        <v>1591.57101945289</v>
       </c>
       <c r="D2" t="n">
-        <v>1119.755593162617</v>
+        <v>1233.30532084614</v>
       </c>
       <c r="E2" t="n">
-        <v>1119.755593162617</v>
+        <v>1233.30532084614</v>
       </c>
       <c r="F2" t="n">
-        <v>708.7696883730096</v>
+        <v>822.3194160565322</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2019641164329</v>
+        <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935902</v>
+        <v>109.1574891935903</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316237</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="J2" t="n">
         <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183947</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887445</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064182</v>
+        <v>1548.631370064181</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.54019874618</v>
+        <v>2087.540198746179</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767916</v>
+        <v>2583.081262767914</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303806</v>
+        <v>2971.513095303803</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301003</v>
+        <v>3215.036478301</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658119</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007349</v>
+        <v>3258.316477036543</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077315</v>
+        <v>3052.141734106508</v>
       </c>
       <c r="U2" t="n">
-        <v>2953.792066077315</v>
+        <v>3052.141734106508</v>
       </c>
       <c r="V2" t="n">
-        <v>2622.729178733744</v>
+        <v>2721.078846762938</v>
       </c>
       <c r="W2" t="n">
-        <v>2269.96052346363</v>
+        <v>2368.310191492824</v>
       </c>
       <c r="X2" t="n">
-        <v>1896.49476520255</v>
+        <v>2368.310191492824</v>
       </c>
       <c r="Y2" t="n">
-        <v>1506.355433226739</v>
+        <v>1978.170859517012</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.371745645388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364261</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.984306703009</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.746851697554</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.212293724439</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>881.8251154793051</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158295</v>
+        <v>791.0906775767799</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316237</v>
+        <v>781.4824094083592</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056106</v>
+        <v>900.604117557363</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794821</v>
+        <v>1135.057607831234</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656277</v>
+        <v>1496.631800017379</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366258</v>
+        <v>1937.928696118009</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102523</v>
+        <v>2405.314052854274</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176383</v>
+        <v>2810.660547928134</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208139</v>
+        <v>3116.653779959889</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417915</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.657777545534</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.588346595887</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.436238364144</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635943</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.34738143041</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.587082665456</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1523.810667965259</v>
+        <v>641.3240545180936</v>
       </c>
       <c r="C4" t="n">
-        <v>1523.810667965259</v>
+        <v>472.3878715901867</v>
       </c>
       <c r="D4" t="n">
-        <v>1430.114202621747</v>
+        <v>322.2712321778511</v>
       </c>
       <c r="E4" t="n">
-        <v>1430.114202621747</v>
+        <v>322.2712321778511</v>
       </c>
       <c r="F4" t="n">
-        <v>1430.114202621747</v>
+        <v>175.3812846799408</v>
       </c>
       <c r="G4" t="n">
-        <v>1430.114202621747</v>
+        <v>175.3812846799408</v>
       </c>
       <c r="H4" t="n">
-        <v>1430.114202621747</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621747</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726846</v>
+        <v>109.1495242182614</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248737</v>
+        <v>310.8381027401519</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412497</v>
+        <v>624.4564789039118</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630629</v>
+        <v>965.512207122043</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350621</v>
+        <v>1303.893008842035</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744369</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372346</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658119</v>
+        <v>1906.594412149533</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.544851141314</v>
+        <v>1815.856307632728</v>
       </c>
       <c r="S4" t="n">
-        <v>2988.507175657001</v>
+        <v>1815.856307632728</v>
       </c>
       <c r="T4" t="n">
-        <v>2766.654309878986</v>
+        <v>1815.856307632728</v>
       </c>
       <c r="U4" t="n">
-        <v>2477.550341936363</v>
+        <v>1815.856307632728</v>
       </c>
       <c r="V4" t="n">
-        <v>2222.865853730476</v>
+        <v>1561.171819426841</v>
       </c>
       <c r="W4" t="n">
-        <v>1933.448683693516</v>
+        <v>1271.754649389881</v>
       </c>
       <c r="X4" t="n">
-        <v>1705.459132795498</v>
+        <v>1043.765098491863</v>
       </c>
       <c r="Y4" t="n">
-        <v>1705.459132795498</v>
+        <v>822.9725193483333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
         <v>1320.35562273557</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="W5" t="n">
-        <v>2466.057311715915</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X5" t="n">
-        <v>2466.057311715915</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369614</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090546</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967188</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1848.004536784053</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1848.004536784053</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1626.237921353579</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1626.237921353579</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1371.553433147692</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.136263110731</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.136263110731</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672012</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1506.363819949361</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C8" t="n">
-        <v>1137.401303008949</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.401303008949</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>751.613050410705</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>340.6271456210974</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013483</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709432</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672471</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.377745778402</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y10" t="n">
-        <v>826.5851666348717</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362704</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622262</v>
+        <v>849.38435762632</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343193</v>
+        <v>680.4481746984131</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219835</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>945.4026036630047</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784064</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V16" t="n">
-        <v>1669.670361056914</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="W16" t="n">
-        <v>1380.253191019954</v>
+        <v>1398.968683817749</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121937</v>
+        <v>1170.979132919732</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784064</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,13 +5589,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,16 +5604,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2436.221543936137</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606602</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>635.1948225204176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6315,7 +6315,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270444</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319337</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656831</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150037</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6901,7 +6901,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,25 +7096,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,10 +7135,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,31 +7154,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580115</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>27.95355500662193</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.95355500661898</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780253</v>
+        <v>1.622913276780338</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112.4142304066875</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>97.36617134890554</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>55.85597232813589</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>133.0300304804183</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,13 +22753,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>84.77391660561959</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.26785128072164</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>167.2340587438925</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>34.97276993488791</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>55.7411224624386</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>2.680607402613586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>72.11969353038592</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8.456051398017834</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194176</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194214</v>
+        <v>57.22910392194262</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26314,22 +26314,22 @@
         <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="F2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="G2" t="n">
         <v>181607.9849302515</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>181607.9849302514</v>
-      </c>
-      <c r="G2" t="n">
-        <v>181607.9849302514</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302514</v>
@@ -26341,10 +26341,10 @@
         <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26353,7 +26353,7 @@
         <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081207</v>
+        <v>1313514.533081206</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074552</v>
+        <v>14479.05232074632</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125532</v>
+        <v>213977.889412553</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022639</v>
+        <v>3495.241841022785</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11698.02956068577</v>
+        <v>11698.02956068582</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26439,25 +26439,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488702</v>
       </c>
       <c r="O4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279752.275740115</v>
+        <v>-1280112.358755832</v>
       </c>
       <c r="C6" t="n">
-        <v>-28032.66168581977</v>
+        <v>-28032.66168582049</v>
       </c>
       <c r="D6" t="n">
-        <v>-13553.60936507431</v>
+        <v>-13553.60936507428</v>
       </c>
       <c r="E6" t="n">
-        <v>-256094.0389528043</v>
+        <v>-256128.7768782403</v>
       </c>
       <c r="F6" t="n">
-        <v>69318.42285455081</v>
+        <v>69283.6849291148</v>
       </c>
       <c r="G6" t="n">
-        <v>69318.42285455075</v>
+        <v>69283.68492911513</v>
       </c>
       <c r="H6" t="n">
-        <v>69318.42285455066</v>
+        <v>69283.68492911541</v>
       </c>
       <c r="I6" t="n">
-        <v>69318.42285455075</v>
+        <v>69283.68492911506</v>
       </c>
       <c r="J6" t="n">
-        <v>-144659.4665580024</v>
+        <v>-144694.2044834379</v>
       </c>
       <c r="K6" t="n">
-        <v>65823.1810135281</v>
+        <v>65788.44308809223</v>
       </c>
       <c r="L6" t="n">
-        <v>42984.67285702948</v>
+        <v>42984.67285702957</v>
       </c>
       <c r="M6" t="n">
-        <v>-22642.63708485059</v>
+        <v>-22642.63708485062</v>
       </c>
       <c r="N6" t="n">
-        <v>62412.39085066124</v>
+        <v>62412.39085066122</v>
       </c>
       <c r="O6" t="n">
         <v>62412.39085066129</v>
       </c>
       <c r="P6" t="n">
-        <v>62412.39085066126</v>
+        <v>62412.39085066129</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145288</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209616</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145288</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776377</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776377</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145297</v>
+        <v>817.8207389145288</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776377</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>276.9082648170734</v>
       </c>
       <c r="W5" t="n">
-        <v>62.38884780978736</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.43504147865197</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.7897717757336</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>161.2723701802172</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>181.1247765293545</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>119.062949285599</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>83.02168809390815</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.395446886618932e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436993</v>
+        <v>4.33646009443699</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215286</v>
+        <v>44.41077194215283</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907823</v>
+        <v>167.1813777907822</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402221</v>
+        <v>368.0516299402219</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377401</v>
+        <v>551.6139857377398</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528663</v>
+        <v>684.325926352866</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573102</v>
+        <v>761.4444485573097</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006294</v>
+        <v>773.7654158006288</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365715</v>
+        <v>730.644740736571</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551581</v>
+        <v>623.5883821551577</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231332</v>
+        <v>468.2889050231328</v>
       </c>
       <c r="R2" t="n">
-        <v>272.400161407178</v>
+        <v>272.4001614071778</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198308</v>
+        <v>98.81708440198301</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339795</v>
+        <v>18.98285406339793</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549593</v>
+        <v>0.3469168075549591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528248</v>
+        <v>2.320210700528246</v>
       </c>
       <c r="H3" t="n">
-        <v>22.4083507129965</v>
+        <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467871</v>
+        <v>79.88444736467866</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863114</v>
+        <v>219.2090293863112</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217039</v>
+        <v>374.6631463217037</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335566</v>
+        <v>503.7808365335563</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277054</v>
+        <v>587.8884744277051</v>
       </c>
       <c r="N3" t="n">
-        <v>603.448133029055</v>
+        <v>603.4481330290547</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594554</v>
+        <v>552.0371485594551</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736792</v>
+        <v>443.0584801736789</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498865</v>
+        <v>296.1728606498863</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871837</v>
+        <v>144.0565906871836</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604001</v>
+        <v>43.09689612603998</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164293</v>
+        <v>9.352077341164287</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242269</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393972</v>
+        <v>1.945186710393971</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695733</v>
+        <v>17.29447820695732</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621147</v>
+        <v>58.49706943621143</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248538</v>
+        <v>137.5247004248537</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166814</v>
+        <v>225.9953287166813</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889366</v>
+        <v>289.1962132889364</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120296</v>
+        <v>304.9168586120294</v>
       </c>
       <c r="N4" t="n">
-        <v>297.666617236925</v>
+        <v>297.6666172369249</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564135</v>
+        <v>274.9432997564134</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643763</v>
+        <v>235.2614908643762</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221716</v>
+        <v>162.8828617221715</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553258</v>
+        <v>87.46266790553253</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750221</v>
+        <v>33.89929930750219</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046969</v>
+        <v>8.311252308046964</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942168</v>
+        <v>0.1061010932942167</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149942</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135358</v>
+        <v>187.0057254135356</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927596</v>
+        <v>331.5241346927592</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828791</v>
+        <v>448.5595113828787</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300375</v>
+        <v>531.098215330037</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040384</v>
+        <v>544.352352204038</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148848</v>
+        <v>500.5465293148842</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998886</v>
+        <v>392.3553863998881</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486837</v>
+        <v>245.9832151486833</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304589</v>
+        <v>56.81462359304572</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964466</v>
+        <v>120.3249577262664</v>
       </c>
       <c r="K3" t="n">
-        <v>236.821707347345</v>
+        <v>236.8217073473447</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536824</v>
+        <v>365.2264567536821</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056871</v>
+        <v>445.7544405056868</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457218</v>
+        <v>472.1064209457214</v>
       </c>
       <c r="O3" t="n">
-        <v>409.440904115011</v>
+        <v>409.4409041150107</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593489</v>
+        <v>309.0840727593487</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.144641570484</v>
+        <v>156.1910865638648</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818104</v>
+        <v>44.16552030818096</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907986</v>
+        <v>203.7258368907984</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492527</v>
+        <v>316.7862385492525</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738702</v>
+        <v>344.50073557387</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161536</v>
+        <v>341.7987896161535</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704532</v>
+        <v>299.528427670453</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292698</v>
+        <v>232.5400501292696</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047723</v>
+        <v>76.72081847047714</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929758</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989911</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
